--- a/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table16.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb163/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACECBD4-8586-6E47-9CF3-8135FCEECE78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49A51E-8E84-7C47-A76F-E26DD4BA3986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20080" yWindow="460" windowWidth="24540" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,14 +502,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1574,10 +1573,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="2">
         <v>47288124</v>
